--- a/Estrategia del proyecto/PD Control de asignaciones.xlsx
+++ b/Estrategia del proyecto/PD Control de asignaciones.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SG701-12\Documents\METFOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielPena\Desktop\ProyectoRapicoop\Semana 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="52">
   <si>
     <t>Observaciones</t>
   </si>
@@ -72,15 +72,9 @@
     <t>LC</t>
   </si>
   <si>
-    <t>Todo el equipo</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
-    <t>LS-LD</t>
-  </si>
-  <si>
     <t>Tiempo Estimado (minutos)</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Elaborar documento de estrategia.</t>
   </si>
   <si>
-    <t>LA-LC</t>
-  </si>
-  <si>
     <t>Realizar correcciones de la entrega anterior (Acta de iniciación).</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>Elaborar el Informe semanal.</t>
   </si>
   <si>
-    <t>LP-LE</t>
-  </si>
-  <si>
     <t>PROYECTO:  RAPICOOP</t>
   </si>
   <si>
@@ -175,12 +163,24 @@
   </si>
   <si>
     <t>TAREA: ESTRATEGIA</t>
+  </si>
+  <si>
+    <t>1 minuto antes</t>
+  </si>
+  <si>
+    <t>5 minutos antes</t>
+  </si>
+  <si>
+    <t>2 minutos antes</t>
+  </si>
+  <si>
+    <t>LD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -609,74 +609,17 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="72">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -685,57 +628,35 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,6 +677,107 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,26 +785,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -810,7 +815,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -841,7 +846,7 @@
         <xdr:cNvPr id="2" name="Picture 2" descr="http://www.acofi.edu.co/wp-content/uploads/2013/10/UNIVERSIDAD-PILOTO-DE-COLOMBIA.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,7 +894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -927,7 +938,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1002,6 +1013,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1037,6 +1065,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1212,750 +1257,2134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="24" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="27" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="53.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="17"/>
+      <c r="A3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" s="31" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="67">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43140</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F8" s="11">
+        <v>43140</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="67">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43140</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F9" s="11">
+        <v>43140</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="67">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43140</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F10" s="11">
+        <v>43140</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="67">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43140</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F11" s="11">
+        <v>43140</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="67">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43140</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F12" s="11">
+        <v>43140</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="67">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43140</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F13" s="11">
+        <v>43140</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="67">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="67">
         <v>20</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D15" s="11">
+        <v>43141</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F15" s="11">
+        <v>43141</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="67">
+        <v>60</v>
+      </c>
+      <c r="D16" s="11">
+        <v>43141</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F16" s="11">
+        <v>43141</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="67">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F17" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="67">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F18" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="67">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F19" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="67">
+        <v>20</v>
+      </c>
+      <c r="D20" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F20" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="67">
+        <v>20</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F21" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="67">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F22" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="67">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F23" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+    </row>
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="67">
+        <v>15</v>
+      </c>
+      <c r="D24" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="67">
+        <v>15</v>
+      </c>
+      <c r="D25" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="67">
+        <v>15</v>
+      </c>
+      <c r="D26" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="67">
+        <v>15</v>
+      </c>
+      <c r="D27" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="67">
+        <v>15</v>
+      </c>
+      <c r="D28" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="67">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F29" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="67">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F30" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="67">
+        <v>10</v>
+      </c>
+      <c r="D31" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F31" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="67">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F32" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+    </row>
+    <row r="33" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="67">
+        <v>10</v>
+      </c>
+      <c r="D33" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F33" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="67">
+        <v>10</v>
+      </c>
+      <c r="D34" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F34" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
+    </row>
+    <row r="35" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="67">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="F35" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="67">
+        <v>10</v>
+      </c>
+      <c r="D36" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="F36" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
+    </row>
+    <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="67">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="F37" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
+    </row>
+    <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="67">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="F38" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
+    </row>
+    <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="67">
+        <v>10</v>
+      </c>
+      <c r="D39" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="F39" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
+    </row>
+    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="67">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="F40" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="41"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="67">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F41" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="67">
+        <v>10</v>
+      </c>
+      <c r="D42" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F42" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="41"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="67">
+        <v>10</v>
+      </c>
+      <c r="D43" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F43" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="41"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="67">
+        <v>10</v>
+      </c>
+      <c r="D44" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F44" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="41"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="67">
+        <v>10</v>
+      </c>
+      <c r="D45" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F45" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="41"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="67">
+        <v>10</v>
+      </c>
+      <c r="D46" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F46" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="41"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="67">
+        <v>10</v>
+      </c>
+      <c r="D47" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F47" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="41"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="67">
+        <v>10</v>
+      </c>
+      <c r="D48" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F48" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="41"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="67">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F49" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="41"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="67">
+        <v>10</v>
+      </c>
+      <c r="D50" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F50" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="41"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="67">
+        <v>10</v>
+      </c>
+      <c r="D51" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F51" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="41"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="67">
+        <v>10</v>
+      </c>
+      <c r="D52" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F52" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="41"/>
+    </row>
+    <row r="53" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="67">
         <v>5</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="D53" s="11">
+        <v>43142</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F53" s="11">
+        <v>43142</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="41"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="67">
+        <v>10</v>
+      </c>
+      <c r="D54" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F54" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="41"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="67">
+        <v>10</v>
+      </c>
+      <c r="D55" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F55" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="41"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="67">
+        <v>10</v>
+      </c>
+      <c r="D56" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F56" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="41"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="67">
+        <v>10</v>
+      </c>
+      <c r="D57" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F57" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="41"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="67">
+        <v>10</v>
+      </c>
+      <c r="D58" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F58" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="39"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="41"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="34">
-        <v>30</v>
-      </c>
-      <c r="D8" s="33">
-        <v>43140</v>
-      </c>
-      <c r="E8" s="35">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="C59" s="67">
+        <v>10</v>
+      </c>
+      <c r="D59" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F59" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="39"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="41"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="67">
+        <v>5</v>
+      </c>
+      <c r="D60" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F60" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="39"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="41"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="67">
+        <v>15</v>
+      </c>
+      <c r="D61" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="F61" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="41"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="67">
+        <v>10</v>
+      </c>
+      <c r="D62" s="11">
+        <v>43143</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F62" s="11">
+        <v>43143</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="41"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="25"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="68">
+        <f>SUM(C75:D80)</f>
+        <v>820</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="68">
+        <f>SUM(I75:J80)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="26"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="34">
-        <v>15</v>
-      </c>
-      <c r="D9" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E9" s="35">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="D74" s="42"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="33">
-        <v>43141</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" s="40" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="34">
-        <v>60</v>
-      </c>
-      <c r="D11" s="33">
-        <v>43141</v>
-      </c>
-      <c r="E11" s="35">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="34">
-        <v>20</v>
-      </c>
-      <c r="D12" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E12" s="35">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="34">
-        <v>20</v>
-      </c>
-      <c r="D13" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E13" s="35">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-    </row>
-    <row r="14" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="34">
-        <v>20</v>
-      </c>
-      <c r="D14" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-    </row>
-    <row r="15" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="34">
-        <v>15</v>
-      </c>
-      <c r="D15" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="34">
-        <v>10</v>
-      </c>
-      <c r="D16" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-    </row>
-    <row r="17" spans="1:11" s="40" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="34">
-        <v>10</v>
-      </c>
-      <c r="D17" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E17" s="35">
-        <v>0.78125</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-    </row>
-    <row r="18" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="34">
-        <v>10</v>
-      </c>
-      <c r="D18" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-    </row>
-    <row r="19" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="34">
-        <v>10</v>
-      </c>
-      <c r="D19" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-    </row>
-    <row r="20" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="34">
-        <v>5</v>
-      </c>
-      <c r="D20" s="33">
-        <v>43142</v>
-      </c>
-      <c r="E20" s="35">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-    </row>
-    <row r="21" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="34">
-        <v>10</v>
-      </c>
-      <c r="D21" s="33">
-        <v>43143</v>
-      </c>
-      <c r="E21" s="35">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-    </row>
-    <row r="22" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="34">
-        <v>5</v>
-      </c>
-      <c r="D22" s="33">
-        <v>43143</v>
-      </c>
-      <c r="E22" s="35">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="34">
-        <v>15</v>
-      </c>
-      <c r="D23" s="33">
-        <v>43143</v>
-      </c>
-      <c r="E23" s="35">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-    </row>
-    <row r="24" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="34">
-        <v>10</v>
-      </c>
-      <c r="D24" s="33">
-        <v>43143</v>
-      </c>
-      <c r="E24" s="35">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-    </row>
-    <row r="25" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-    </row>
-    <row r="27" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I27" s="45"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-    </row>
-    <row r="28" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I28" s="45"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-    </row>
-    <row r="29" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I29" s="45"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-    </row>
-    <row r="30" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="45"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-    </row>
-    <row r="31" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" s="45"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-    </row>
-    <row r="32" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I32" s="45"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52"/>
-    </row>
-    <row r="33" spans="1:11" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="44">
-        <f>SUM(C8:C26)</f>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K35" s="53"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="I74" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="42"/>
+      <c r="K74" s="26"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B75" s="69">
+        <v>9</v>
+      </c>
+      <c r="C75" s="70">
+        <f>C8+C28+C34+C40+C46+C52+C59+C22+C62</f>
+        <v>125</v>
+      </c>
+      <c r="D75" s="71"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="69">
+        <v>9</v>
+      </c>
+      <c r="I75" s="70">
+        <f>I8+I28+I34+I40+I46+I52+I59+I22+I62</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="71"/>
+      <c r="K75" s="26"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="K36" s="53"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="B76" s="69">
+        <v>10</v>
+      </c>
+      <c r="C76" s="70">
+        <f>C8+C28+C34+C40+C46+C52+C59+C15+C22+C61</f>
+        <v>150</v>
+      </c>
+      <c r="D76" s="71"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="69">
+        <v>10</v>
+      </c>
+      <c r="I76" s="70">
+        <f>I8+I28+I34+I40+I46+I52+I59+I15+I22+I61</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="71"/>
+      <c r="K76" s="26"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="57">
-        <v>11</v>
-      </c>
-      <c r="C37" s="58">
-        <f>C8+C15+C16+C17+C18+C19+C21+C14+C24</f>
+      <c r="B77" s="69">
+        <v>10</v>
+      </c>
+      <c r="C77" s="70">
+        <f>C8+C28+C34+C40+C46+C52+C59+C20+C53+C60</f>
         <v>125</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="56"/>
-      <c r="K37" s="53"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
+      <c r="D77" s="71"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="69">
+        <v>10</v>
+      </c>
+      <c r="I77" s="70">
+        <f>I8+I28+I34+I40+I46+I52+I59+I20+I53+I60</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="71"/>
+      <c r="K77" s="26"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="57">
-        <v>12</v>
-      </c>
-      <c r="C38" s="58">
-        <f>C8+C15+C16+C17+C18+C19+C21+C10+C14+C23</f>
-        <v>150</v>
-      </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="56"/>
-      <c r="K38" s="53"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
+      <c r="B78" s="69">
+        <v>8</v>
+      </c>
+      <c r="C78" s="70">
+        <f>C8+C28+C34+C40+C46+C52+C59+C20</f>
+        <v>115</v>
+      </c>
+      <c r="D78" s="71"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="69">
+        <v>8</v>
+      </c>
+      <c r="I78" s="70">
+        <f>I8+I28+I34+I40+I46+I52+I59+I20</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="71"/>
+      <c r="K78" s="26"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="57">
-        <v>13</v>
-      </c>
-      <c r="C39" s="58">
-        <f>C8+C15+C16+C17+C18+C19+C21+C13+C20+C22</f>
-        <v>125</v>
-      </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="56"/>
-      <c r="K39" s="53"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="B79" s="69">
+        <v>9</v>
+      </c>
+      <c r="C79" s="70">
+        <f>C8+C28+C34+C40+C46+C52+C59+C16+C18</f>
+        <v>175</v>
+      </c>
+      <c r="D79" s="71"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="69">
+        <v>9</v>
+      </c>
+      <c r="I79" s="70">
+        <f>I8+I28+I34+I40+I46+I52+I59+I16+I18</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="71"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="57">
-        <v>12</v>
-      </c>
-      <c r="C40" s="58">
-        <f>C8+C15+C16+C17+C18+C19+C21+C13</f>
-        <v>115</v>
-      </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="56"/>
-      <c r="K40" s="53"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="57">
-        <v>12</v>
-      </c>
-      <c r="C41" s="58">
-        <f>C8+C15+C16+C17+C18+C19+C21+C11+C12</f>
-        <v>175</v>
-      </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="57">
-        <v>11</v>
-      </c>
-      <c r="C42" s="58">
-        <f>C8+C15+C16+C17+C18+C19+C21+C9+C12</f>
+      <c r="B80" s="69">
+        <v>9</v>
+      </c>
+      <c r="C80" s="70">
+        <f>C8+C28+C34+C40+C46+C52+C59+C14+C18</f>
         <v>130</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="56"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E43" s="56"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="69">
+        <v>9</v>
+      </c>
+      <c r="I80" s="70">
+        <f>I8+I28+I34+I40+I46+I52+I59+I14+I18</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="71"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A6:K6"/>
+  <mergeCells count="78">
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="B3:E4"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
